--- a/data/trans_orig/P36B10_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36B10_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{00C8B846-34F6-46DA-A9EE-D4F2EE30BCAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6F86074-08DB-40E8-AA9E-B607EE84AB93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5356A399-3EFC-4504-958F-B61E56A106E4}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{55A01800-B501-41CD-98A2-2DB8FD4213AA}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="178">
   <si>
     <t>Población según el número de raciones pescado o mariscos que consumen a la semana en 2023 (Tasa respuesta: 99,85%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>11,29%</t>
   </si>
   <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
   </si>
   <si>
     <t>6,06%</t>
   </si>
   <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
   </si>
   <si>
     <t>8,32%</t>
   </si>
   <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
   </si>
   <si>
     <t>Uno por semana</t>
@@ -104,28 +104,28 @@
     <t>36,54%</t>
   </si>
   <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>46,53%</t>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>46,7%</t>
   </si>
   <si>
     <t>35,72%</t>
   </si>
   <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>42,73%</t>
   </si>
   <si>
     <t>36,07%</t>
   </si>
   <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>42,82%</t>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
   </si>
   <si>
     <t>Dos o más por semana</t>
@@ -134,28 +134,28 @@
     <t>52,17%</t>
   </si>
   <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>63,27%</t>
+    <t>42,16%</t>
+  </si>
+  <si>
+    <t>62,79%</t>
   </si>
   <si>
     <t>58,22%</t>
   </si>
   <si>
-    <t>50,62%</t>
-  </si>
-  <si>
-    <t>65,05%</t>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>65,13%</t>
   </si>
   <si>
     <t>55,61%</t>
   </si>
   <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>62,36%</t>
+    <t>48,72%</t>
+  </si>
+  <si>
+    <t>61,44%</t>
   </si>
   <si>
     <t>100%</t>
@@ -167,82 +167,82 @@
     <t>3,84%</t>
   </si>
   <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
   </si>
   <si>
     <t>5,08%</t>
   </si>
   <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
   </si>
   <si>
     <t>4,48%</t>
   </si>
   <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
   </si>
   <si>
     <t>45,24%</t>
   </si>
   <si>
-    <t>40,92%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
+    <t>41,2%</t>
+  </si>
+  <si>
+    <t>49,77%</t>
   </si>
   <si>
     <t>46,33%</t>
   </si>
   <si>
-    <t>43,13%</t>
-  </si>
-  <si>
-    <t>49,91%</t>
+    <t>43,04%</t>
+  </si>
+  <si>
+    <t>49,87%</t>
   </si>
   <si>
     <t>45,81%</t>
   </si>
   <si>
-    <t>43,2%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
+    <t>42,96%</t>
+  </si>
+  <si>
+    <t>48,54%</t>
   </si>
   <si>
     <t>50,93%</t>
   </si>
   <si>
-    <t>46,38%</t>
-  </si>
-  <si>
-    <t>55,47%</t>
+    <t>46,32%</t>
+  </si>
+  <si>
+    <t>55,23%</t>
   </si>
   <si>
     <t>48,59%</t>
   </si>
   <si>
-    <t>45,06%</t>
-  </si>
-  <si>
-    <t>51,92%</t>
+    <t>45,07%</t>
+  </si>
+  <si>
+    <t>52,11%</t>
   </si>
   <si>
     <t>49,71%</t>
   </si>
   <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>52,43%</t>
+    <t>46,83%</t>
+  </si>
+  <si>
+    <t>52,35%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -251,52 +251,52 @@
     <t>8,17%</t>
   </si>
   <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
   </si>
   <si>
     <t>7,06%</t>
   </si>
   <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
   </si>
   <si>
     <t>7,61%</t>
   </si>
   <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
   </si>
   <si>
     <t>54,66%</t>
   </si>
   <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>62,4%</t>
+    <t>50,52%</t>
+  </si>
+  <si>
+    <t>61,94%</t>
   </si>
   <si>
     <t>49,94%</t>
   </si>
   <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>52,56%</t>
+    <t>47,19%</t>
+  </si>
+  <si>
+    <t>52,75%</t>
   </si>
   <si>
     <t>52,28%</t>
   </si>
   <si>
-    <t>49,89%</t>
+    <t>49,66%</t>
   </si>
   <si>
     <t>56,07%</t>
@@ -305,28 +305,28 @@
     <t>37,17%</t>
   </si>
   <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>40,88%</t>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
   </si>
   <si>
     <t>42,99%</t>
   </si>
   <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
+    <t>40,31%</t>
+  </si>
+  <si>
+    <t>45,96%</t>
   </si>
   <si>
     <t>40,11%</t>
   </si>
   <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>42,37%</t>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -335,34 +335,34 @@
     <t>16,3%</t>
   </si>
   <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
   </si>
   <si>
     <t>11,98%</t>
   </si>
   <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
   </si>
   <si>
     <t>13,95%</t>
   </si>
   <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
   </si>
   <si>
     <t>43,06%</t>
   </si>
   <si>
-    <t>38,77%</t>
+    <t>38,78%</t>
   </si>
   <si>
     <t>47,59%</t>
@@ -371,40 +371,46 @@
     <t>36,9%</t>
   </si>
   <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>43,04%</t>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>43,57%</t>
   </si>
   <si>
     <t>39,7%</t>
   </si>
   <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
   </si>
   <si>
     <t>40,63%</t>
   </si>
   <si>
-    <t>36,78%</t>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
   </si>
   <si>
     <t>51,12%</t>
   </si>
   <si>
-    <t>43,18%</t>
-  </si>
-  <si>
-    <t>68,08%</t>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>67,25%</t>
   </si>
   <si>
     <t>46,35%</t>
   </si>
   <si>
-    <t>41,46%</t>
+    <t>41,45%</t>
+  </si>
+  <si>
+    <t>59,13%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -413,43 +419,43 @@
     <t>10,09%</t>
   </si>
   <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
   </si>
   <si>
     <t>8,63%</t>
   </si>
   <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
   </si>
   <si>
     <t>9,3%</t>
   </si>
   <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
   </si>
   <si>
     <t>48,1%</t>
   </si>
   <si>
-    <t>44,46%</t>
-  </si>
-  <si>
-    <t>51,19%</t>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>51,51%</t>
   </si>
   <si>
     <t>45,79%</t>
   </si>
   <si>
-    <t>42,76%</t>
+    <t>42,7%</t>
   </si>
   <si>
     <t>49,01%</t>
@@ -458,67 +464,64 @@
     <t>46,85%</t>
   </si>
   <si>
-    <t>44,71%</t>
-  </si>
-  <si>
-    <t>49,26%</t>
+    <t>44,51%</t>
+  </si>
+  <si>
+    <t>49,02%</t>
   </si>
   <si>
     <t>41,81%</t>
   </si>
   <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>45,28%</t>
   </si>
   <si>
     <t>45,58%</t>
   </si>
   <si>
-    <t>42,47%</t>
-  </si>
-  <si>
-    <t>48,45%</t>
+    <t>42,63%</t>
   </si>
   <si>
     <t>43,86%</t>
   </si>
   <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
   </si>
   <si>
     <t>9,86%</t>
   </si>
   <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
   </si>
   <si>
     <t>9,05%</t>
   </si>
   <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
   </si>
   <si>
     <t>48,22%</t>
   </si>
   <si>
-    <t>46,39%</t>
+    <t>46,19%</t>
   </si>
   <si>
     <t>51,14%</t>
@@ -527,37 +530,43 @@
     <t>44,64%</t>
   </si>
   <si>
-    <t>40,21%</t>
+    <t>40,12%</t>
   </si>
   <si>
     <t>46,75%</t>
   </si>
   <si>
-    <t>43,81%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
+    <t>43,94%</t>
+  </si>
+  <si>
+    <t>47,97%</t>
   </si>
   <si>
     <t>41,92%</t>
   </si>
   <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>43,75%</t>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>43,76%</t>
   </si>
   <si>
     <t>47,04%</t>
   </si>
   <si>
-    <t>44,8%</t>
-  </si>
-  <si>
-    <t>52,16%</t>
+    <t>44,83%</t>
+  </si>
+  <si>
+    <t>53,33%</t>
   </si>
   <si>
     <t>44,63%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>47,47%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -972,7 +981,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F6D8433-C356-4BAA-A31C-04B799649F49}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0D2A5B7-741A-43A7-BD9E-1FB2E830DC18}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1822,7 +1831,7 @@
         <v>117</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="H18" s="7">
         <v>477</v>
@@ -1831,13 +1840,13 @@
         <v>446974</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M18" s="7">
         <v>771</v>
@@ -1846,13 +1855,13 @@
         <v>743100</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>34</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1908,7 +1917,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1920,13 +1929,13 @@
         <v>97279</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H20" s="7">
         <v>139</v>
@@ -1935,13 +1944,13 @@
         <v>99180</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M20" s="7">
         <v>224</v>
@@ -1950,13 +1959,13 @@
         <v>196459</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1971,13 +1980,13 @@
         <v>463573</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H21" s="7">
         <v>680</v>
@@ -1986,13 +1995,13 @@
         <v>526499</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M21" s="7">
         <v>1162</v>
@@ -2001,13 +2010,13 @@
         <v>990071</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2022,13 +2031,13 @@
         <v>402918</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H22" s="7">
         <v>742</v>
@@ -2037,13 +2046,13 @@
         <v>524052</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>147</v>
+        <v>38</v>
       </c>
       <c r="M22" s="7">
         <v>1180</v>
@@ -2052,13 +2061,13 @@
         <v>926969</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2126,13 +2135,13 @@
         <v>333254</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H24" s="7">
         <v>435</v>
@@ -2144,10 +2153,10 @@
         <v>17</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M24" s="7">
         <v>734</v>
@@ -2156,13 +2165,13 @@
         <v>649952</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2177,13 +2186,13 @@
         <v>1629653</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H25" s="7">
         <v>2369</v>
@@ -2192,13 +2201,13 @@
         <v>1698966</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M25" s="7">
         <v>3939</v>
@@ -2210,10 +2219,10 @@
         <v>54</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2228,13 +2237,13 @@
         <v>1416497</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H26" s="7">
         <v>2556</v>
@@ -2243,13 +2252,13 @@
         <v>1790042</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M26" s="7">
         <v>4057</v>
@@ -2258,13 +2267,13 @@
         <v>3206539</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>91</v>
+        <v>175</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>109</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2320,7 +2329,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
